--- a/natmiOut/OldD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>F2rl3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H2">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J2">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.99710418407526</v>
+        <v>3.073240333333333</v>
       </c>
       <c r="N2">
-        <v>2.99710418407526</v>
+        <v>9.219721</v>
       </c>
       <c r="O2">
-        <v>0.7493415788584036</v>
+        <v>0.71283010077264</v>
       </c>
       <c r="P2">
-        <v>0.7493415788584036</v>
+        <v>0.7128301007726399</v>
       </c>
       <c r="Q2">
-        <v>1.970165116020733</v>
+        <v>2.071482816626222</v>
       </c>
       <c r="R2">
-        <v>1.970165116020733</v>
+        <v>18.643345349636</v>
       </c>
       <c r="S2">
-        <v>0.233163360257708</v>
+        <v>0.2180061979671613</v>
       </c>
       <c r="T2">
-        <v>0.233163360257708</v>
+        <v>0.2180061979671613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H3">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J3">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.505394756046507</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N3">
-        <v>0.505394756046507</v>
+        <v>2.075461</v>
       </c>
       <c r="O3">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="P3">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="Q3">
-        <v>0.3322243929567826</v>
+        <v>0.4663136550528889</v>
       </c>
       <c r="R3">
-        <v>0.3322243929567826</v>
+        <v>4.196822895475999</v>
       </c>
       <c r="S3">
-        <v>0.03931779889486454</v>
+        <v>0.04907560235706944</v>
       </c>
       <c r="T3">
-        <v>0.03931779889486454</v>
+        <v>0.04907560235706943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H4">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J4">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0849279680502759</v>
+        <v>0.1179043333333333</v>
       </c>
       <c r="N4">
-        <v>0.0849279680502759</v>
+        <v>0.353713</v>
       </c>
       <c r="O4">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="P4">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="Q4">
-        <v>0.05582792914447959</v>
+        <v>0.07947207963422222</v>
       </c>
       <c r="R4">
-        <v>0.05582792914447959</v>
+        <v>0.7152487167080001</v>
       </c>
       <c r="S4">
-        <v>0.006607074427268008</v>
+        <v>0.008363770042668162</v>
       </c>
       <c r="T4">
-        <v>0.006607074427268008</v>
+        <v>0.00836377004266816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.657356232889387</v>
+        <v>0.6740386666666667</v>
       </c>
       <c r="H5">
-        <v>0.657356232889387</v>
+        <v>2.022116</v>
       </c>
       <c r="I5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="J5">
-        <v>0.3111576440385498</v>
+        <v>0.3058319194585966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412223276248854</v>
+        <v>0.4283573333333333</v>
       </c>
       <c r="N5">
-        <v>0.412223276248854</v>
+        <v>1.285072</v>
       </c>
       <c r="O5">
-        <v>0.1030648324832286</v>
+        <v>0.09935636916345929</v>
       </c>
       <c r="P5">
-        <v>0.1030648324832286</v>
+        <v>0.09935636916345927</v>
       </c>
       <c r="Q5">
-        <v>0.2709775399842678</v>
+        <v>0.2887294058168889</v>
       </c>
       <c r="R5">
-        <v>0.2709775399842678</v>
+        <v>2.598564652352</v>
       </c>
       <c r="S5">
-        <v>0.0320694104587092</v>
+        <v>0.03038634909169767</v>
       </c>
       <c r="T5">
-        <v>0.0320694104587092</v>
+        <v>0.03038634909169767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J6">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.99710418407526</v>
+        <v>3.073240333333333</v>
       </c>
       <c r="N6">
-        <v>2.99710418407526</v>
+        <v>9.219721</v>
       </c>
       <c r="O6">
-        <v>0.7493415788584036</v>
+        <v>0.71283010077264</v>
       </c>
       <c r="P6">
-        <v>0.7493415788584036</v>
+        <v>0.7128301007726399</v>
       </c>
       <c r="Q6">
-        <v>2.878812988953316</v>
+        <v>2.990854955304222</v>
       </c>
       <c r="R6">
-        <v>2.878812988953316</v>
+        <v>26.917694597738</v>
       </c>
       <c r="S6">
-        <v>0.3406992158168065</v>
+        <v>0.3147624070273758</v>
       </c>
       <c r="T6">
-        <v>0.3406992158168065</v>
+        <v>0.3147624070273757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J7">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.505394756046507</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N7">
-        <v>0.505394756046507</v>
+        <v>2.075461</v>
       </c>
       <c r="O7">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="P7">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="Q7">
-        <v>0.4854475850343153</v>
+        <v>0.6732744750508889</v>
       </c>
       <c r="R7">
-        <v>0.4854475850343153</v>
+        <v>6.059470275458</v>
       </c>
       <c r="S7">
-        <v>0.05745132183854954</v>
+        <v>0.07085649338536863</v>
       </c>
       <c r="T7">
-        <v>0.05745132183854954</v>
+        <v>0.07085649338536862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J8">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0849279680502759</v>
+        <v>0.1179043333333333</v>
       </c>
       <c r="N8">
-        <v>0.0849279680502759</v>
+        <v>0.353713</v>
       </c>
       <c r="O8">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="P8">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="Q8">
-        <v>0.08157598886539312</v>
+        <v>0.1147436325682222</v>
       </c>
       <c r="R8">
-        <v>0.08157598886539312</v>
+        <v>1.032692693114</v>
       </c>
       <c r="S8">
-        <v>0.009654283047411481</v>
+        <v>0.01207580525233618</v>
       </c>
       <c r="T8">
-        <v>0.009654283047411481</v>
+        <v>0.01207580525233618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.960531503792738</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
-        <v>0.960531503792738</v>
+        <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="J9">
-        <v>0.454664768950697</v>
+        <v>0.4415672215387696</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412223276248854</v>
+        <v>0.4283573333333333</v>
       </c>
       <c r="N9">
-        <v>0.412223276248854</v>
+        <v>1.285072</v>
       </c>
       <c r="O9">
-        <v>0.1030648324832286</v>
+        <v>0.09935636916345929</v>
       </c>
       <c r="P9">
-        <v>0.1030648324832286</v>
+        <v>0.09935636916345927</v>
       </c>
       <c r="Q9">
-        <v>0.395953443433681</v>
+        <v>0.4168742155128889</v>
       </c>
       <c r="R9">
-        <v>0.395953443433681</v>
+        <v>3.751867939616</v>
       </c>
       <c r="S9">
-        <v>0.0468599482479294</v>
+        <v>0.043872515873689</v>
       </c>
       <c r="T9">
-        <v>0.0468599482479294</v>
+        <v>0.043872515873689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H10">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J10">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.99710418407526</v>
+        <v>3.073240333333333</v>
       </c>
       <c r="N10">
-        <v>2.99710418407526</v>
+        <v>9.219721</v>
       </c>
       <c r="O10">
-        <v>0.7493415788584036</v>
+        <v>0.71283010077264</v>
       </c>
       <c r="P10">
-        <v>0.7493415788584036</v>
+        <v>0.7128301007726399</v>
       </c>
       <c r="Q10">
-        <v>1.482748445110788</v>
+        <v>0.1493441139983333</v>
       </c>
       <c r="R10">
-        <v>1.482748445110788</v>
+        <v>1.344097025985</v>
       </c>
       <c r="S10">
-        <v>0.1754790027838889</v>
+        <v>0.01571721581286267</v>
       </c>
       <c r="T10">
-        <v>0.1754790027838889</v>
+        <v>0.01571721581286267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H11">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J11">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.505394756046507</v>
+        <v>0.6918203333333333</v>
       </c>
       <c r="N11">
-        <v>0.505394756046507</v>
+        <v>2.075461</v>
       </c>
       <c r="O11">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="P11">
-        <v>0.1263597396630031</v>
+        <v>0.1604659266565316</v>
       </c>
       <c r="Q11">
-        <v>0.2500324455442043</v>
+        <v>0.03361900909833333</v>
       </c>
       <c r="R11">
-        <v>0.2500324455442043</v>
+        <v>0.302571081885</v>
       </c>
       <c r="S11">
-        <v>0.02959061892958903</v>
+        <v>0.003538118826825646</v>
       </c>
       <c r="T11">
-        <v>0.02959061892958903</v>
+        <v>0.003538118826825646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.494727027838801</v>
+        <v>0.048595</v>
       </c>
       <c r="H12">
-        <v>0.494727027838801</v>
+        <v>0.145785</v>
       </c>
       <c r="I12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="J12">
-        <v>0.2341775870107532</v>
+        <v>0.02204903496054208</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0849279680502759</v>
+        <v>0.1179043333333333</v>
       </c>
       <c r="N12">
-        <v>0.0849279680502759</v>
+        <v>0.353713</v>
       </c>
       <c r="O12">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="P12">
-        <v>0.0212338489953647</v>
+        <v>0.02734760340736914</v>
       </c>
       <c r="Q12">
-        <v>0.04201616121390165</v>
+        <v>0.005729561078333333</v>
       </c>
       <c r="R12">
-        <v>0.04201616121390165</v>
+        <v>0.051566049705</v>
       </c>
       <c r="S12">
-        <v>0.004972491520685211</v>
+        <v>0.0006029882636161218</v>
       </c>
       <c r="T12">
-        <v>0.004972491520685211</v>
+        <v>0.0006029882636161217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048595</v>
+      </c>
+      <c r="H13">
+        <v>0.145785</v>
+      </c>
+      <c r="I13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="J13">
+        <v>0.02204903496054208</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4283573333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.285072</v>
+      </c>
+      <c r="O13">
+        <v>0.09935636916345929</v>
+      </c>
+      <c r="P13">
+        <v>0.09935636916345927</v>
+      </c>
+      <c r="Q13">
+        <v>0.02081602461333333</v>
+      </c>
+      <c r="R13">
+        <v>0.18734422152</v>
+      </c>
+      <c r="S13">
+        <v>0.002190712057237639</v>
+      </c>
+      <c r="T13">
+        <v>0.002190712057237638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.508125</v>
+      </c>
+      <c r="H14">
+        <v>1.524375</v>
+      </c>
+      <c r="I14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J14">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.073240333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.219721</v>
+      </c>
+      <c r="O14">
+        <v>0.71283010077264</v>
+      </c>
+      <c r="P14">
+        <v>0.7128301007726399</v>
+      </c>
+      <c r="Q14">
+        <v>1.561590244375</v>
+      </c>
+      <c r="R14">
+        <v>14.054312199375</v>
+      </c>
+      <c r="S14">
+        <v>0.1643442799652402</v>
+      </c>
+      <c r="T14">
+        <v>0.1643442799652401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.508125</v>
+      </c>
+      <c r="H15">
+        <v>1.524375</v>
+      </c>
+      <c r="I15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J15">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6918203333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.075461</v>
+      </c>
+      <c r="O15">
+        <v>0.1604659266565316</v>
+      </c>
+      <c r="P15">
+        <v>0.1604659266565316</v>
+      </c>
+      <c r="Q15">
+        <v>0.351531206875</v>
+      </c>
+      <c r="R15">
+        <v>3.163780861875</v>
+      </c>
+      <c r="S15">
+        <v>0.03699571208726786</v>
+      </c>
+      <c r="T15">
+        <v>0.03699571208726785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="H13">
-        <v>0.494727027838801</v>
-      </c>
-      <c r="I13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="J13">
-        <v>0.2341775870107532</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.412223276248854</v>
-      </c>
-      <c r="N13">
-        <v>0.412223276248854</v>
-      </c>
-      <c r="O13">
-        <v>0.1030648324832286</v>
-      </c>
-      <c r="P13">
-        <v>0.1030648324832286</v>
-      </c>
-      <c r="Q13">
-        <v>0.2039379962645686</v>
-      </c>
-      <c r="R13">
-        <v>0.2039379962645686</v>
-      </c>
-      <c r="S13">
-        <v>0.02413547377658996</v>
-      </c>
-      <c r="T13">
-        <v>0.02413547377658996</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.508125</v>
+      </c>
+      <c r="H16">
+        <v>1.524375</v>
+      </c>
+      <c r="I16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J16">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1179043333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.353713</v>
+      </c>
+      <c r="O16">
+        <v>0.02734760340736914</v>
+      </c>
+      <c r="P16">
+        <v>0.02734760340736914</v>
+      </c>
+      <c r="Q16">
+        <v>0.059910139375</v>
+      </c>
+      <c r="R16">
+        <v>0.539191254375</v>
+      </c>
+      <c r="S16">
+        <v>0.006305039848748677</v>
+      </c>
+      <c r="T16">
+        <v>0.006305039848748676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.508125</v>
+      </c>
+      <c r="H17">
+        <v>1.524375</v>
+      </c>
+      <c r="I17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="J17">
+        <v>0.2305518240420917</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4283573333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.285072</v>
+      </c>
+      <c r="O17">
+        <v>0.09935636916345929</v>
+      </c>
+      <c r="P17">
+        <v>0.09935636916345927</v>
+      </c>
+      <c r="Q17">
+        <v>0.21765907</v>
+      </c>
+      <c r="R17">
+        <v>1.95893163</v>
+      </c>
+      <c r="S17">
+        <v>0.02290679214083497</v>
+      </c>
+      <c r="T17">
+        <v>0.02290679214083497</v>
       </c>
     </row>
   </sheetData>
